--- a/InputFiles/CTDC/TC01_CTDC_Race-AmerIndAlaskNat.xlsx
+++ b/InputFiles/CTDC/TC01_CTDC_Race-AmerIndAlaskNat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CTDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58760BCC-5710-4F26-8F0C-9BB92189F206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0799596-911E-45D9-86E4-9B434CC43CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -107,100 +107,6 @@
 WHERE 
     std.study_id = 'NCT04314401'
     AND demo.race = 'American Indian or Alaska Native';</t>
-  </si>
-  <si>
-    <t>SELECT
-    prt.participant_id AS "Participant ID",
-    dgn.ctep_disease_term AS "Diagnosis",
-    demo.age_at_enrollment AS "Age",
-    demo.sex AS "Sex",
-    demo.race AS "Race",
-    demo.ethnicity AS "Ethnicity",
-    exp.carcinogen_exposure AS "Carcinogen Exposure",
-    REPLACE(GROUP_CONCAT(DISTINCT tgt.targeted_therapy), ',', ', ') AS "Targeted Therapy"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
-WHERE 
-    std.study_id = 'NCT04314401'
-    AND demo.race = 'American Indian or Alaska Native'
-GROUP BY
-    prt.participant_id,
-    dgn.ctep_disease_term,
-    demo.age_at_enrollment,
-    demo.sex,
-    demo.race,
-    demo.ethnicity,
-    exp.carcinogen_exposure
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    dgn.ctep_disease_term AS "Diagnosis",
-    dgn.primary_disease_site AS "Primary Site",
-    bio.specimen_record_id AS "Specimen Record ID",
-    bio.anatomical_collection_site AS "Anatomical Collection Site",
-    bio.tissue_category AS "Tissue Category",
-    bio.assessment_timepoint AS "Collection Timepoint"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
-WHERE 
-    std.study_id = 'NCT04314401' AND demo.race = 'American Indian or Alaska Native'
-LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -270,28 +176,109 @@
     std.study_id = 'NCT04314401' AND demo.race = 'American Indian or Alaska Native' AND fil.data_file_name IS NOT NULL
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>SELECT
+    prt.participant_id AS "Participant ID",
+    dgn.ctep_disease_term AS "Diagnosis",
+    demo.age_at_enrollment AS "Age",
+    demo.sex AS "Sex",
+    demo.race AS "Race",
+    demo.ethnicity AS "Ethnicity",
+    exp.carcinogen_exposure AS "Carcinogen Exposure",
+    (
+        SELECT GROUP_CONCAT(pretty_drug, ', ')
+        FROM (
+            SELECT DISTINCT
+                UPPER(SUBSTR(TRIM(t2.targeted_therapy), 1, 1)) ||
+                LOWER(SUBSTR(TRIM(t2.targeted_therapy), 2)) AS pretty_drug
+            FROM df_targeted_therapy t2
+            WHERE t2."participant.participant_id" = prt.participant_id
+            ORDER BY pretty_drug ASC
+        )
+    ) AS "Targeted Therapy"
+FROM 
+    df_study std
+LEFT JOIN df_participant prt 
+    ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN df_diagnosis dgn 
+    ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN df_demographic demo 
+    ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN df_exposure exp 
+    ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN df_targeted_therapy tgt 
+    ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN df_non_targeted_therapy ntt 
+    ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN df_participant_status pst 
+    ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN df_biospecimen bio 
+    ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN df_file fil 
+    ON prt.participant_id = fil."participant.participant_id"
+WHERE 
+    std.study_id = 'NCT04314401'
+    AND demo.race = 'American Indian or Alaska Native'
+GROUP BY
+    prt.participant_id,
+    dgn.ctep_disease_term,
+    demo.age_at_enrollment,
+    demo.sex,
+    demo.race,
+    demo.ethnicity,
+    exp.carcinogen_exposure
+ORDER BY
+    prt.participant_id
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    prt.participant_id AS "Participant ID",
+    dgn.ctep_disease_term AS "Diagnosis",
+    -- Primary Site: first letter upper, rest lower
+    UPPER(SUBSTR(dgn.primary_disease_site, 1, 1)) ||
+    LOWER(SUBSTR(dgn.primary_disease_site, 2)) AS "Primary Site",
+    bio.specimen_record_id AS "Specimen Record ID",
+    -- Anatomical Collection Site: first letter upper, rest lower
+    UPPER(SUBSTR(bio.anatomical_collection_site, 1, 1)) ||
+    LOWER(SUBSTR(bio.anatomical_collection_site, 2)) AS "Anatomical Collection Site",
+    bio.tissue_category AS "Tissue Category",
+    bio.assessment_timepoint AS "Collection Timepoint"
+FROM 
+    df_study std
+LEFT JOIN df_participant prt 
+    ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN df_diagnosis dgn 
+    ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN df_demographic demo 
+    ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN df_exposure exp 
+    ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN df_targeted_therapy tgt 
+    ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN df_non_targeted_therapy ntt 
+    ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN df_participant_status pst 
+    ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN df_biospecimen bio 
+    ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN df_file fil 
+    ON prt.participant_id = fil."participant.participant_id"
+WHERE 
+    std.study_id = 'NCT04314401'
+ORDER BY
+    prt.participant_id ASC,
+    bio.specimen_record_id ASC
+LIMIT 100;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -351,17 +338,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -690,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,12 +706,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -741,16 +722,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -758,7 +739,7 @@
       <c r="C5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
